--- a/Excel/ASE/ASE.xlsx
+++ b/Excel/ASE/ASE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseed\Documents\GitHub\rcode\honours-project\Data - Excel\ASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseed\Documents\GitHub\rcode\honours-project\Excel\ASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3188FBA-5234-4983-94B3-88AA9C169E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2C2643-864C-4869-B981-E85AD9B3F385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="F421" sqref="F421"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,8 +1465,8 @@
       <c r="A79" s="1">
         <v>42216</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
+      <c r="B79">
+        <v>710.86</v>
       </c>
       <c r="C79">
         <v>17.1953</v>
